--- a/数据表/J-技能表.xlsx
+++ b/数据表/J-技能表.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>技能ID</t>
   </si>
@@ -101,6 +101,9 @@
     <t>技能描述</t>
   </si>
   <si>
+    <t>技能效果</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
   </si>
   <si>
     <t>Desc</t>
+  </si>
+  <si>
+    <t>Effect</t>
   </si>
   <si>
     <t>撞击</t>
@@ -151,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -165,8 +171,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -174,16 +254,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,123 +284,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -319,6 +320,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -329,13 +335,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,31 +413,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,133 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,9 +531,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,21 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,7 +583,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,17 +626,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -628,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1104,7 +1110,7 @@
     <col min="4" max="4" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,69 +1141,78 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1205,13 +1220,13 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -1229,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/J-技能表.xlsx
+++ b/数据表/J-技能表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -131,7 +131,7 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>shooting</t>
+    <t>HitRate</t>
   </si>
   <si>
     <t>CritRate</t>
@@ -158,9 +158,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,21 +171,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -193,68 +193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,6 +216,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -286,14 +287,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,15 +302,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +335,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,10 +531,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -558,30 +565,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -590,9 +573,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,16 +612,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -634,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/数据表/J-技能表.xlsx
+++ b/数据表/J-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="12000" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>技能ID</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>气临九渊怒</t>
+  </si>
+  <si>
+    <t>1002|1003|1010</t>
+  </si>
+  <si>
+    <t>龙怒天火断</t>
+  </si>
+  <si>
+    <t>1003|</t>
   </si>
 </sst>
 </file>
@@ -157,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,9 +183,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +243,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,7 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +272,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -216,100 +319,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,187 +347,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,17 +544,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,8 +568,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,17 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +658,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,15 +1111,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1245,6 +1259,70 @@
       </c>
       <c r="J4" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1012</v>
+      </c>
+      <c r="E5">
+        <v>160</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1012</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>95</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/J-技能表.xlsx
+++ b/数据表/J-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="9405"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,8 @@
           </rPr>
           <t xml:space="preserve">
 1:物理攻击
-2:特殊攻击</t>
+2:特殊攻击
+3:属性攻击</t>
         </r>
       </text>
     </comment>
@@ -169,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -183,6 +184,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -192,19 +228,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -212,55 +257,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,9 +289,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,44 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -332,11 +338,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,103 +348,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,79 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,15 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -570,6 +562,39 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,30 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -646,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,8 +1114,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/数据表/J-技能表.xlsx
+++ b/数据表/J-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>RTX4090</author>
+    <author>杨锦龙</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,12 +66,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">杨锦龙:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">0:不是第五
+1:是第五
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>技能ID</t>
   </si>
@@ -78,6 +103,9 @@
     <t>技能名称</t>
   </si>
   <si>
+    <t>是否是第五</t>
+  </si>
+  <si>
     <t>攻击类型</t>
   </si>
   <si>
@@ -115,6 +143,9 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Special</t>
   </si>
   <si>
     <t>Type</t>
@@ -171,9 +202,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -185,73 +216,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +290,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -274,38 +323,28 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -313,24 +352,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -338,6 +364,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -348,19 +379,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,163 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,26 +573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,20 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,17 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -639,6 +641,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +690,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,20 +1143,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="2" max="3" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1159,171 +1190,189 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
         <v>40</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>98</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>26</v>
+      <c r="K4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1012</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>160</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
-        <v>28</v>
+      <c r="L5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1012</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>150</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>95</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
-        <v>30</v>
+      <c r="L6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/J-技能表.xlsx
+++ b/数据表/J-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="23325" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>技能ID</t>
   </si>
@@ -127,9 +127,6 @@
     <t>暴击概率</t>
   </si>
   <si>
-    <t>技能描述</t>
-  </si>
-  <si>
     <t>技能效果</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>CritRate</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>Effect</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>普通</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>气临九渊怒</t>
   </si>
   <si>
@@ -194,6 +185,9 @@
   </si>
   <si>
     <t>1003|</t>
+  </si>
+  <si>
+    <t>烈焰冲击波</t>
   </si>
 </sst>
 </file>
@@ -201,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -215,8 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,14 +241,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +271,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,16 +291,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,46 +339,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -330,35 +353,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -370,7 +364,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,13 +373,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,31 +499,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,133 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +582,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,32 +639,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,9 +665,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,17 +682,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,138 +702,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,20 +1167,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1190,92 +1214,83 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1284,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -1301,16 +1316,13 @@
       <c r="J4">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1336,16 +1348,16 @@
       <c r="J5">
         <v>10</v>
       </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1371,9 +1383,505 @@
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>95</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3">
+        <v>1105</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3">
+        <v>1106</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="3">
+        <v>1107</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="3">
+        <v>1108</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>1109</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>1112</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>1113</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>1114</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
+        <v>1115</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <v>1116</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>1117</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>1118</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>1119</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>1120</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3">
+        <v>1121</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3">
+        <v>1122</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="3">
+        <v>1123</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="3">
+        <v>1124</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>1125</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>1126</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>1127</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>1128</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="3">
+        <v>1129</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="3">
+        <v>1130</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="3">
+        <v>1131</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3">
+        <v>1132</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/数据表/J-技能表.xlsx
+++ b/数据表/J-技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>技能ID</t>
   </si>
@@ -187,7 +187,19 @@
     <t>1003|</t>
   </si>
   <si>
-    <t>烈焰冲击波</t>
+    <t>苍炎日无极</t>
+  </si>
+  <si>
+    <t>热血</t>
+  </si>
+  <si>
+    <t>2|3</t>
+  </si>
+  <si>
+    <t>天罚</t>
+  </si>
+  <si>
+    <t>烈火燎原</t>
   </si>
 </sst>
 </file>
@@ -195,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -206,6 +218,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,7 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,53 +259,86 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,53 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,7 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +376,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,19 +391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,43 +427,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,137 +571,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,22 +649,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,8 +657,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +680,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -673,15 +697,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -690,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,37 +717,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,111 +756,108 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1182,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1391,497 +1403,561 @@
       <c r="A7" s="1">
         <v>1101</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1002</v>
       </c>
-      <c r="F7" s="2">
-        <v>80</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="1">
+        <v>150</v>
+      </c>
+      <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>95</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>1102</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1017</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>95</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>1103</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1013</v>
+      </c>
+      <c r="F9" s="1">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>1104</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>98</v>
+      </c>
+      <c r="J10" s="1">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1105</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>1106</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>1107</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>1108</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>1109</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>1110</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>1111</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>1112</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>1113</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>1114</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>1115</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>1116</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>1117</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>1118</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>1119</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>1120</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>1121</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>1122</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>1123</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>1124</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>1125</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>1126</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>1127</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>1128</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>1129</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>1130</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>1131</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>1132</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/数据表/J-技能表.xlsx
+++ b/数据表/J-技能表.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>技能ID</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>烈火燎原</t>
+  </si>
+  <si>
+    <t>天海碧浪诀</t>
+  </si>
+  <si>
+    <t>深海咒术</t>
+  </si>
+  <si>
+    <t>天堂之水</t>
+  </si>
+  <si>
+    <t>丛花盛放诀</t>
+  </si>
+  <si>
+    <t>自然之灵</t>
+  </si>
+  <si>
+    <t>飞叶拥抱</t>
   </si>
 </sst>
 </file>
@@ -207,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,6 +246,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -235,16 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,17 +270,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,11 +284,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,7 +316,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,46 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -365,18 +383,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,13 +415,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,163 +577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,32 +624,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +662,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -678,22 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,16 +741,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,119 +759,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +879,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1182,7 +1209,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1543,421 +1570,981 @@
       <c r="A11" s="2">
         <v>1105</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>150</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>95</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>1106</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1017</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>95</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>1107</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1013</v>
+      </c>
+      <c r="F13" s="3">
+        <v>80</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>100</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>1108</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>98</v>
+      </c>
+      <c r="J14" s="3">
+        <v>15</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>1109</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1003</v>
+      </c>
+      <c r="F15" s="1">
+        <v>150</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>95</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>1110</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1017</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>95</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>1111</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1013</v>
+      </c>
+      <c r="F17" s="1">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>1112</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1003</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>98</v>
+      </c>
+      <c r="J18" s="1">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>1113</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F19" s="3">
+        <v>150</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>95</v>
+      </c>
+      <c r="J19" s="3">
+        <v>10</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>1114</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1017</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>95</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>1115</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1013</v>
+      </c>
+      <c r="F21" s="3">
+        <v>80</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>1116</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>15</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>98</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>1117</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>150</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>95</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>1118</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1017</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>95</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>1119</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1013</v>
+      </c>
+      <c r="F25" s="1">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>1120</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>98</v>
+      </c>
+      <c r="J26" s="1">
+        <v>15</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>1121</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F27" s="3">
+        <v>150</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>95</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>1122</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1017</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>15</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>95</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>1123</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1013</v>
+      </c>
+      <c r="F29" s="3">
+        <v>80</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10</v>
+      </c>
+      <c r="K29" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>1124</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F30" s="3">
+        <v>100</v>
+      </c>
+      <c r="G30" s="3">
+        <v>15</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>98</v>
+      </c>
+      <c r="J30" s="3">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>1125</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F31" s="1">
+        <v>150</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>95</v>
+      </c>
+      <c r="J31" s="1">
+        <v>10</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>1126</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1017</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>95</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>1127</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1013</v>
+      </c>
+      <c r="F33" s="1">
+        <v>80</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10</v>
+      </c>
+      <c r="K33" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>1128</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1002</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>98</v>
+      </c>
+      <c r="J34" s="1">
+        <v>15</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>1129</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F35" s="3">
+        <v>150</v>
+      </c>
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>95</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>1130</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1017</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>15</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>95</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>1131</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1013</v>
+      </c>
+      <c r="F37" s="3">
+        <v>80</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>100</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10</v>
+      </c>
+      <c r="K37" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>1132</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F38" s="3">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3">
+        <v>15</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>98</v>
+      </c>
+      <c r="J38" s="3">
+        <v>15</v>
+      </c>
+      <c r="K38" s="3">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
